--- a/data/trans_orig/CoPsoQ_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R2-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>51023</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40204</v>
+        <v>38780</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62004</v>
+        <v>61892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4185633492054145</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3298073716732809</v>
+        <v>0.3181294683448658</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.508645771673031</v>
+        <v>0.507724119756281</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -764,19 +764,19 @@
         <v>35076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26081</v>
+        <v>25113</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44787</v>
+        <v>44649</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.42179987888163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3136269452800108</v>
+        <v>0.3019885799186641</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5385780654588698</v>
+        <v>0.5369171824433133</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -785,19 +785,19 @@
         <v>86099</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70841</v>
+        <v>72340</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100283</v>
+        <v>100672</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4198758672005649</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3454676333119954</v>
+        <v>0.3527761243285977</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4890464569694952</v>
+        <v>0.4909443131710887</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>70877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59896</v>
+        <v>60008</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81696</v>
+        <v>83120</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5814366507945855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4913542283269689</v>
+        <v>0.492275880243719</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.670192628326719</v>
+        <v>0.6818705316551341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -835,19 +835,19 @@
         <v>48082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38371</v>
+        <v>38509</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57077</v>
+        <v>58045</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5782001211183699</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4614219345411301</v>
+        <v>0.4630828175566871</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6863730547199894</v>
+        <v>0.698011420081336</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>109</v>
@@ -856,19 +856,19 @@
         <v>118959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>104775</v>
+        <v>104386</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>134217</v>
+        <v>132718</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5801241327994351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5109535430305048</v>
+        <v>0.5090556868289111</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6545323666880044</v>
+        <v>0.647223875671402</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>105844</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91622</v>
+        <v>92155</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>119321</v>
+        <v>119397</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6179720826952422</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5349379502781895</v>
+        <v>0.5380520691051888</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6966583970957474</v>
+        <v>0.6971057321848692</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -981,19 +981,19 @@
         <v>69697</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57906</v>
+        <v>57086</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80991</v>
+        <v>79955</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5778579385670056</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4801008271155734</v>
+        <v>0.4732972399598099</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.671498153714019</v>
+        <v>0.6629049127057155</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -1002,19 +1002,19 @@
         <v>175541</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158531</v>
+        <v>157759</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>193692</v>
+        <v>191703</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6013963132589146</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5431213238878235</v>
+        <v>0.5404746578051399</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6635816864033783</v>
+        <v>0.6567670291193686</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>65432</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51955</v>
+        <v>51879</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79654</v>
+        <v>79121</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3820279173047578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3033416029042525</v>
+        <v>0.3028942678151301</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.46506204972181</v>
+        <v>0.4619479308948111</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -1052,19 +1052,19 @@
         <v>50916</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>39622</v>
+        <v>40658</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62707</v>
+        <v>63527</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4221420614329943</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3285018462859809</v>
+        <v>0.3370950872942844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5198991728844266</v>
+        <v>0.52670276004019</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>107</v>
@@ -1073,19 +1073,19 @@
         <v>116348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>98197</v>
+        <v>100186</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>133358</v>
+        <v>134130</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3986036867410854</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3364183135966221</v>
+        <v>0.3432329708806316</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4568786761121765</v>
+        <v>0.4595253421948601</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>76046</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64874</v>
+        <v>65023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87359</v>
+        <v>86366</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5660483467326329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4828898893230677</v>
+        <v>0.4839976710496549</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6502596109395425</v>
+        <v>0.6428706210999326</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1198,19 +1198,19 @@
         <v>30657</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22248</v>
+        <v>22514</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40062</v>
+        <v>39387</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3913436543374124</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2840002961182512</v>
+        <v>0.2873947296005483</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.511396567493432</v>
+        <v>0.5027814712176224</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -1219,19 +1219,19 @@
         <v>106703</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92247</v>
+        <v>92843</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122157</v>
+        <v>120978</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5016990904861544</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4337310523920532</v>
+        <v>0.4365301390921356</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5743612378955196</v>
+        <v>0.5688196116223342</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>58299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46986</v>
+        <v>47979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69471</v>
+        <v>69322</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.433951653267367</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3497403890604577</v>
+        <v>0.3571293789000674</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5171101106769322</v>
+        <v>0.5160023289503451</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -1269,19 +1269,19 @@
         <v>47681</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38276</v>
+        <v>38951</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56090</v>
+        <v>55824</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6086563456625876</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.488603432506568</v>
+        <v>0.4972185287823775</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7159997038817487</v>
+        <v>0.7126052703994517</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>104</v>
@@ -1290,19 +1290,19 @@
         <v>105980</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>90526</v>
+        <v>91705</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>120436</v>
+        <v>119840</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4983009095138457</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4256387621044799</v>
+        <v>0.4311803883776656</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5662689476079468</v>
+        <v>0.5634698609078643</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>80116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67549</v>
+        <v>67451</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91506</v>
+        <v>91007</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5656861545006607</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4769559051499939</v>
+        <v>0.4762594143695801</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6461079963694458</v>
+        <v>0.642590009310566</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1415,19 +1415,19 @@
         <v>50403</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40556</v>
+        <v>40499</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60601</v>
+        <v>61591</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5023920237575832</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4042405751037813</v>
+        <v>0.4036725761744821</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6040389997203374</v>
+        <v>0.6139044031165463</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -1436,19 +1436,19 @@
         <v>130519</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113939</v>
+        <v>116336</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>146704</v>
+        <v>146834</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5394409148397598</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4709118035932863</v>
+        <v>0.4808221607744983</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.606333241527895</v>
+        <v>0.6068691637921485</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>61510</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50120</v>
+        <v>50619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74077</v>
+        <v>74175</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4343138454993392</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3538920036305542</v>
+        <v>0.357409990689434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.523044094850006</v>
+        <v>0.5237405856304198</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -1486,19 +1486,19 @@
         <v>49924</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39726</v>
+        <v>38736</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59771</v>
+        <v>59828</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4976079762424168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3959610002796626</v>
+        <v>0.3860955968834537</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5957594248962187</v>
+        <v>0.5963274238255182</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>102</v>
@@ -1507,19 +1507,19 @@
         <v>111434</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95249</v>
+        <v>95119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128014</v>
+        <v>125617</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4605590851602403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3936667584721049</v>
+        <v>0.3931308362078515</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5290881964067137</v>
+        <v>0.5191778392255016</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>28125</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18948</v>
+        <v>19566</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37454</v>
+        <v>37475</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3460115684377816</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2331119849671701</v>
+        <v>0.2407147505000156</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.46079489576599</v>
+        <v>0.4610492468487272</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1632,19 +1632,19 @@
         <v>25181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17543</v>
+        <v>17737</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32689</v>
+        <v>32332</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4685115675036757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3264120140496162</v>
+        <v>0.3300238435315238</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6082192038385519</v>
+        <v>0.6015611877436549</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -1653,19 +1653,19 @@
         <v>53305</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41391</v>
+        <v>41967</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64096</v>
+        <v>65367</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3947712051918792</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3065398523563979</v>
+        <v>0.3108043425969867</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4746859216623942</v>
+        <v>0.4840978232290301</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>53157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43828</v>
+        <v>43807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62334</v>
+        <v>61716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6539884315622184</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5392051042340101</v>
+        <v>0.5389507531512729</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7668880150328307</v>
+        <v>0.7592852494999847</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1703,19 +1703,19 @@
         <v>28565</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21057</v>
+        <v>21414</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36203</v>
+        <v>36009</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5314884324963244</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3917807961614481</v>
+        <v>0.398438812256345</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6735879859503838</v>
+        <v>0.6699761564684763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>75</v>
@@ -1724,19 +1724,19 @@
         <v>81723</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70932</v>
+        <v>69661</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>93637</v>
+        <v>93061</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6052287948081208</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5253140783376058</v>
+        <v>0.5159021767709698</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6934601476436022</v>
+        <v>0.6891956574030133</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>66972</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54879</v>
+        <v>56384</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77629</v>
+        <v>77992</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5845723432900102</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.479018511987413</v>
+        <v>0.4921563962053679</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6775944772092651</v>
+        <v>0.6807653635960719</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -1849,19 +1849,19 @@
         <v>22529</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15580</v>
+        <v>15451</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29708</v>
+        <v>30385</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.407457722774749</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2817785073834806</v>
+        <v>0.2794472098749743</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5372871290069259</v>
+        <v>0.5495406295367027</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -1870,19 +1870,19 @@
         <v>89501</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74959</v>
+        <v>76113</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102781</v>
+        <v>102254</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5269178341533433</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4413022907750047</v>
+        <v>0.4481005033187432</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6050989290061615</v>
+        <v>0.601994230814823</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>47593</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36936</v>
+        <v>36573</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59686</v>
+        <v>58181</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4154276567099898</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.322405522790735</v>
+        <v>0.3192346364039282</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5209814880125871</v>
+        <v>0.5078436037946322</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -1920,19 +1920,19 @@
         <v>32763</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25584</v>
+        <v>24907</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39712</v>
+        <v>39841</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.592542277225251</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.462712870993074</v>
+        <v>0.4504593704632974</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7182214926165195</v>
+        <v>0.7205527901250257</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>75</v>
@@ -1941,19 +1941,19 @@
         <v>80357</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>67077</v>
+        <v>67604</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94899</v>
+        <v>93745</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4730821658466567</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3949010709938386</v>
+        <v>0.3980057691851772</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5586977092249957</v>
+        <v>0.5518994966812568</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>146082</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129380</v>
+        <v>128474</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>162781</v>
+        <v>162318</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5474941472451944</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4848993338197185</v>
+        <v>0.4815022026781056</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6100788184889208</v>
+        <v>0.60834532885617</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>75</v>
@@ -2066,19 +2066,19 @@
         <v>79989</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64568</v>
+        <v>67388</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>93500</v>
+        <v>94826</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4465918309014092</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.360495356947784</v>
+        <v>0.3762375743640278</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.522026985456059</v>
+        <v>0.5294283633884338</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>218</v>
@@ -2087,19 +2087,19 @@
         <v>226071</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>204711</v>
+        <v>204619</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>249206</v>
+        <v>248489</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5069661014124369</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.459066618588064</v>
+        <v>0.4588601798532351</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5588468842928441</v>
+        <v>0.5572394544424396</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>120737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>104038</v>
+        <v>104501</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>137439</v>
+        <v>138345</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4525058527548056</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3899211815110792</v>
+        <v>0.3916546711438301</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5151006661802816</v>
+        <v>0.5184977973218943</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>93</v>
@@ -2137,19 +2137,19 @@
         <v>99121</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>85610</v>
+        <v>84284</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>114542</v>
+        <v>111722</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5534081690985908</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.477973014543941</v>
+        <v>0.4705716366115662</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6395046430522161</v>
+        <v>0.6237624256359721</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>199</v>
@@ -2158,19 +2158,19 @@
         <v>219858</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>196723</v>
+        <v>197440</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>241218</v>
+        <v>241310</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4930338985875631</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4411531157071559</v>
+        <v>0.4427605455575602</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5409333814119361</v>
+        <v>0.5411398201467646</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>255800</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>238423</v>
+        <v>238054</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>273974</v>
+        <v>274530</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7145138809648847</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6659754035316084</v>
+        <v>0.6649446711418404</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7652763231584584</v>
+        <v>0.7668298272902639</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>171</v>
@@ -2283,19 +2283,19 @@
         <v>189547</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>172374</v>
+        <v>175557</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>202324</v>
+        <v>203542</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.742267951377642</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6750200519870048</v>
+        <v>0.6874809699264083</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7923019916900812</v>
+        <v>0.7970714899552858</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>410</v>
@@ -2304,19 +2304,19 @@
         <v>445347</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>422645</v>
+        <v>420514</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>468682</v>
+        <v>467944</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.726068665214113</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6890558402850521</v>
+        <v>0.6855821683895306</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7641129839935337</v>
+        <v>0.7629084627660915</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>102206</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>84032</v>
+        <v>83476</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>119583</v>
+        <v>119952</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2854861190351153</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2347236768415417</v>
+        <v>0.2331701727097359</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3340245964683917</v>
+        <v>0.3350553288581593</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>60</v>
@@ -2354,19 +2354,19 @@
         <v>65815</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>53038</v>
+        <v>51820</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>82988</v>
+        <v>79805</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.257732048622358</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2076980083099187</v>
+        <v>0.2029285100447143</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3249799480129951</v>
+        <v>0.3125190300735919</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>155</v>
@@ -2375,19 +2375,19 @@
         <v>168021</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>144686</v>
+        <v>145424</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>190723</v>
+        <v>192854</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.273931334785887</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2358870160064663</v>
+        <v>0.2370915372339084</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.310944159714948</v>
+        <v>0.3144178316104695</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>810007</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5828143100462408</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>465</v>
@@ -2500,19 +2500,19 @@
         <v>503080</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5433142340123405</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1233</v>
@@ -2521,19 +2521,19 @@
         <v>1313087</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5670204211383862</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>579813</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>545330</v>
+        <v>543921</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>617230</v>
+        <v>622281</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4171856899537592</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3923746592438774</v>
+        <v>0.3913605053264275</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4441080603005515</v>
+        <v>0.4477423583425383</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>389</v>
@@ -2571,19 +2571,19 @@
         <v>422867</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>392396</v>
+        <v>392037</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>454484</v>
+        <v>451944</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4566857659876595</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4237782831520274</v>
+        <v>0.4233900381676505</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4908313897992688</v>
+        <v>0.4880887981687831</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>926</v>
@@ -2592,19 +2592,19 @@
         <v>1002680</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>957445</v>
+        <v>955890</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1054842</v>
+        <v>1055577</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4329795788616138</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4134460668921436</v>
+        <v>0.4127748497834844</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4555045369547215</v>
+        <v>0.455821665855491</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>48377</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37518</v>
+        <v>37291</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60687</v>
+        <v>59717</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3636007922503707</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2819841150731184</v>
+        <v>0.2802748521054622</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4561219168684661</v>
+        <v>0.4488247504742798</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -2961,19 +2961,19 @@
         <v>42798</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33430</v>
+        <v>34430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53755</v>
+        <v>53419</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4276798763715733</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3340633995509651</v>
+        <v>0.3440632167987978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5371708104973149</v>
+        <v>0.5338206236570576</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -2982,19 +2982,19 @@
         <v>91175</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75635</v>
+        <v>75596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107543</v>
+        <v>106524</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3911074897748905</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3244467992624934</v>
+        <v>0.3242776517459565</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4613222834678997</v>
+        <v>0.4569486887796516</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>84674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72364</v>
+        <v>73334</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95533</v>
+        <v>95760</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6363992077496292</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5438780831315336</v>
+        <v>0.5511752495257206</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7180158849268813</v>
+        <v>0.719725147894538</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -3032,19 +3032,19 @@
         <v>57272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46315</v>
+        <v>46651</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66640</v>
+        <v>65640</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5723201236284268</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4628291895026851</v>
+        <v>0.4661793763429403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6659366004490349</v>
+        <v>0.6559367832012021</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>130</v>
@@ -3053,19 +3053,19 @@
         <v>141945</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>125577</v>
+        <v>126596</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>157485</v>
+        <v>157524</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6088925102251095</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5386777165321003</v>
+        <v>0.5430513112203484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6755532007375065</v>
+        <v>0.6757223482540435</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>89009</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76786</v>
+        <v>74877</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101720</v>
+        <v>102933</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5226700526818215</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4508923634235458</v>
+        <v>0.4396855205751413</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5973077624716272</v>
+        <v>0.6044328149266019</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -3178,19 +3178,19 @@
         <v>67635</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56973</v>
+        <v>57350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77577</v>
+        <v>77556</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5949607573965895</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5011694917711349</v>
+        <v>0.5044852711387549</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6824181948655338</v>
+        <v>0.682231825661749</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>146</v>
@@ -3199,19 +3199,19 @@
         <v>156644</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>139419</v>
+        <v>136857</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>171880</v>
+        <v>173620</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5516090930748173</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.490952384505372</v>
+        <v>0.481928722809733</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6052619708197644</v>
+        <v>0.6113862741286467</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>81288</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>68577</v>
+        <v>67364</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>93511</v>
+        <v>95420</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4773299473181785</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4026922375283733</v>
+        <v>0.3955671850733982</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5491076365764544</v>
+        <v>0.5603144794248587</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -3249,19 +3249,19 @@
         <v>46045</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36103</v>
+        <v>36124</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56707</v>
+        <v>56330</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4050392426034106</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3175818051344667</v>
+        <v>0.3177681743382509</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.498830508228865</v>
+        <v>0.4955147288612453</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>120</v>
@@ -3270,19 +3270,19 @@
         <v>127333</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>112097</v>
+        <v>110357</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>144558</v>
+        <v>147120</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4483909069251827</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3947380291802355</v>
+        <v>0.3886137258713535</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.509047615494628</v>
+        <v>0.5180712771902671</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>53962</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43219</v>
+        <v>43639</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64507</v>
+        <v>65310</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.429671747882686</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3441334638732748</v>
+        <v>0.3474740523188998</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5136322844239717</v>
+        <v>0.5200284043123151</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3395,19 +3395,19 @@
         <v>34539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25096</v>
+        <v>26076</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42741</v>
+        <v>43956</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4095548028336294</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.297579992611792</v>
+        <v>0.3092058934214242</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5068180596271225</v>
+        <v>0.5212224326574695</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -3416,19 +3416,19 @@
         <v>88501</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74136</v>
+        <v>74536</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101865</v>
+        <v>101741</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4215900458830006</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3531575793829455</v>
+        <v>0.3550647616539814</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4852494133977664</v>
+        <v>0.4846602745958222</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>71627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61082</v>
+        <v>60279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82370</v>
+        <v>81950</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.570328252117314</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4863677155760284</v>
+        <v>0.4799715956876851</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6558665361267253</v>
+        <v>0.6525259476811002</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>51</v>
@@ -3466,19 +3466,19 @@
         <v>49794</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41592</v>
+        <v>40377</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>59237</v>
+        <v>58257</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5904451971663706</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4931819403728774</v>
+        <v>0.4787775673425305</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7024200073882078</v>
+        <v>0.6907941065785757</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>126</v>
@@ -3487,19 +3487,19 @@
         <v>121421</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>108057</v>
+        <v>108181</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>135786</v>
+        <v>135386</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5784099541169995</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5147505866022335</v>
+        <v>0.5153397254041778</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6468424206170544</v>
+        <v>0.6449352383460185</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>50458</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39858</v>
+        <v>38898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61641</v>
+        <v>60514</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4497981637765913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3553061502102409</v>
+        <v>0.3467421678864865</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5494795642175782</v>
+        <v>0.5394344170855836</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -3612,19 +3612,19 @@
         <v>34920</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26360</v>
+        <v>26111</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44271</v>
+        <v>44450</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4265860918024107</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3220221625835879</v>
+        <v>0.318973398322972</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5408149259206773</v>
+        <v>0.5430100189401363</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -3633,19 +3633,19 @@
         <v>85378</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70639</v>
+        <v>71108</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100088</v>
+        <v>100658</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4400057363577858</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3640438936855096</v>
+        <v>0.3664636060404041</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5158114463903156</v>
+        <v>0.518750254221846</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>61722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50539</v>
+        <v>51666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>72322</v>
+        <v>73282</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5502018362234088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4505204357824221</v>
+        <v>0.4605655829144163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6446938497897593</v>
+        <v>0.6532578321135135</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -3683,19 +3683,19 @@
         <v>46939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37588</v>
+        <v>37409</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55499</v>
+        <v>55748</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5734139081975893</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4591850740793232</v>
+        <v>0.4569899810598637</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6779778374164123</v>
+        <v>0.6810266016770281</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>104</v>
@@ -3704,19 +3704,19 @@
         <v>108661</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>93951</v>
+        <v>93381</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>123400</v>
+        <v>122931</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5599942636422142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4841885536096841</v>
+        <v>0.481249745778154</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6359561063144904</v>
+        <v>0.6335363939595959</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>50980</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41814</v>
+        <v>41832</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59097</v>
+        <v>58959</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6299263612412555</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5166645397601548</v>
+        <v>0.5168931237896185</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7302275355306778</v>
+        <v>0.7285222036181653</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -3829,19 +3829,19 @@
         <v>32645</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25462</v>
+        <v>25543</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39491</v>
+        <v>38848</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.58906148834751</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4594472058930925</v>
+        <v>0.4609117342655335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.712598597657871</v>
+        <v>0.7010051605365597</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>83</v>
@@ -3850,19 +3850,19 @@
         <v>83625</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71694</v>
+        <v>72542</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94910</v>
+        <v>93949</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.613316945162277</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5258158440958975</v>
+        <v>0.5320334009229538</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6960899633671674</v>
+        <v>0.6890411922536905</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>29950</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21833</v>
+        <v>21971</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39116</v>
+        <v>39098</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3700736387587446</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2697724644693224</v>
+        <v>0.2714777963818348</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4833354602398452</v>
+        <v>0.4831068762103817</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -3900,19 +3900,19 @@
         <v>22773</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15927</v>
+        <v>16570</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29956</v>
+        <v>29875</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.41093851165249</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2874014023421291</v>
+        <v>0.2989948394634404</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5405527941069076</v>
+        <v>0.5390882657344674</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>55</v>
@@ -3921,19 +3921,19 @@
         <v>52723</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41438</v>
+        <v>42399</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64654</v>
+        <v>63806</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.386683054837723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3039100366328325</v>
+        <v>0.3109588077463095</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4741841559041024</v>
+        <v>0.4679665990770462</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>57837</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48001</v>
+        <v>47283</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67841</v>
+        <v>67848</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5380086963634245</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4465108590161653</v>
+        <v>0.4398329992221481</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6310704698635963</v>
+        <v>0.6311283927590967</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -4046,19 +4046,19 @@
         <v>44606</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35854</v>
+        <v>36097</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52688</v>
+        <v>53539</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5902714310906998</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4744577815269682</v>
+        <v>0.4776768216882833</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6972249598980877</v>
+        <v>0.7084856272184445</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>103</v>
@@ -4067,19 +4067,19 @@
         <v>102443</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88469</v>
+        <v>89267</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116366</v>
+        <v>115950</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5595818395123711</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4832517565826995</v>
+        <v>0.4876070613923995</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6356338853121966</v>
+        <v>0.6333581837146585</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>49665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39661</v>
+        <v>39654</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59501</v>
+        <v>60219</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4619913036365755</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3689295301364036</v>
+        <v>0.3688716072409033</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5534891409838344</v>
+        <v>0.5601670007778518</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -4117,19 +4117,19 @@
         <v>30962</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22880</v>
+        <v>22029</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39714</v>
+        <v>39471</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4097285689093002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3027750401019118</v>
+        <v>0.2915143727815555</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5255422184730312</v>
+        <v>0.5223231783117167</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>77</v>
@@ -4138,19 +4138,19 @@
         <v>80628</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>66705</v>
+        <v>67121</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94602</v>
+        <v>93804</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.440418160487629</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3643661146878034</v>
+        <v>0.3666418162853415</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5167482434173004</v>
+        <v>0.5123929386076006</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>166123</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>146088</v>
+        <v>146236</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185903</v>
+        <v>186713</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4629001600622561</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4070728350566582</v>
+        <v>0.407484341594432</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5180171871328854</v>
+        <v>0.5202723982406654</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>135</v>
@@ -4263,19 +4263,19 @@
         <v>139045</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>122463</v>
+        <v>121696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>156348</v>
+        <v>155694</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4898618965370087</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4314409764527086</v>
+        <v>0.4287390023745264</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5508214816355038</v>
+        <v>0.548516740154566</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>280</v>
@@ -4284,19 +4284,19 @@
         <v>305169</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>278933</v>
+        <v>280130</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>331448</v>
+        <v>332795</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4748073196737151</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4339875559414013</v>
+        <v>0.4358507263181871</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5156956186632351</v>
+        <v>0.5177909401286488</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>192752</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>172972</v>
+        <v>172162</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>212787</v>
+        <v>212639</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5370998399377439</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4819828128671146</v>
+        <v>0.4797276017593346</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5929271649433416</v>
+        <v>0.592515658405568</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>138</v>
@@ -4334,19 +4334,19 @@
         <v>144801</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>127498</v>
+        <v>128152</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>161383</v>
+        <v>162150</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5101381034629914</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4491785183644965</v>
+        <v>0.4514832598454341</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5685590235472915</v>
+        <v>0.5712609976254736</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>305</v>
@@ -4355,19 +4355,19 @@
         <v>337552</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>311273</v>
+        <v>309926</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>363788</v>
+        <v>362591</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.525192680326285</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.484304381336765</v>
+        <v>0.4822090598713513</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5660124440585989</v>
+        <v>0.5641492736818131</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>261183</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>246068</v>
+        <v>245221</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>275053</v>
+        <v>276524</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7965021768851512</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7504072988542485</v>
+        <v>0.7478243099792345</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8387985941297502</v>
+        <v>0.8432849099299717</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>166</v>
@@ -4480,19 +4480,19 @@
         <v>173066</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>158655</v>
+        <v>157700</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>185938</v>
+        <v>185600</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7296004678972824</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6688449617411385</v>
+        <v>0.6648207932025741</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7838646888027657</v>
+        <v>0.7824378824650233</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>417</v>
@@ -4501,19 +4501,19 @@
         <v>434249</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>412591</v>
+        <v>414427</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>452999</v>
+        <v>453488</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7684204450029375</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7300960706956404</v>
+        <v>0.7333443078610921</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8015984330629896</v>
+        <v>0.8024649033730055</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>66730</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52860</v>
+        <v>51389</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>81845</v>
+        <v>82692</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2034978231148487</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1612014058702496</v>
+        <v>0.1567150900700283</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2495927011457512</v>
+        <v>0.2521756900207655</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -4551,19 +4551,19 @@
         <v>64141</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51269</v>
+        <v>51607</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>78552</v>
+        <v>79507</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2703995321027176</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2161353111972343</v>
+        <v>0.2175621175349767</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3311550382588617</v>
+        <v>0.3351792067974259</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>125</v>
@@ -4572,19 +4572,19 @@
         <v>130870</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>112120</v>
+        <v>111631</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>152528</v>
+        <v>150692</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2315795549970625</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1984015669370105</v>
+        <v>0.1975350966269944</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2699039293043597</v>
+        <v>0.2666556921389078</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>777931</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5492552692122116</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>556</v>
@@ -4697,19 +4697,19 @@
         <v>569254</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5516127117179139</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1283</v>
@@ -4718,19 +4718,19 @@
         <v>1347184</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1293315</v>
+        <v>1298625</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1398208</v>
+        <v>1396241</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5502489460869632</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.528246407919125</v>
+        <v>0.5304153621987521</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5710893755946692</v>
+        <v>0.5702857378981977</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>638406</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>595207</v>
+        <v>599689</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>675486</v>
+        <v>676082</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4507447307877884</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4202440721160052</v>
+        <v>0.423408136594807</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4769245097167036</v>
+        <v>0.4773453029402996</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>452</v>
@@ -4768,19 +4768,19 @@
         <v>462728</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>430675</v>
+        <v>430839</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>496693</v>
+        <v>493234</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4483872882820861</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4173283486636059</v>
+        <v>0.4174870139568154</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.481299797574738</v>
+        <v>0.4779482612014401</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1042</v>
@@ -4789,19 +4789,19 @@
         <v>1101134</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1050110</v>
+        <v>1052077</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1155003</v>
+        <v>1149693</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4497510539130369</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.428910624405331</v>
+        <v>0.4297142621018023</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4717535920808754</v>
+        <v>0.469584637801248</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>16465</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10242</v>
+        <v>10413</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23262</v>
+        <v>23625</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4031569202253962</v>
+        <v>0.4031569202253961</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2507851612198398</v>
+        <v>0.2549571461712487</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5695644045195546</v>
+        <v>0.5784512312467947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -5158,19 +5158,19 @@
         <v>15871</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11440</v>
+        <v>11671</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20419</v>
+        <v>20378</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4847342672468744</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3494158529744302</v>
+        <v>0.3564769428437488</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6236375834063379</v>
+        <v>0.6223887786404559</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -5179,19 +5179,19 @@
         <v>32336</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24274</v>
+        <v>25337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40428</v>
+        <v>41142</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4394553878754753</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3298875563731016</v>
+        <v>0.3443303076026678</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5494300197533277</v>
+        <v>0.5591251557466225</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>24376</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17579</v>
+        <v>17216</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30599</v>
+        <v>30428</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5968430797746039</v>
+        <v>0.5968430797746038</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.430435595480446</v>
+        <v>0.4215487687532056</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7492148387801606</v>
+        <v>0.7450428538287516</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -5229,19 +5229,19 @@
         <v>16870</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12322</v>
+        <v>12363</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21301</v>
+        <v>21070</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5152657327531257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.376362416593662</v>
+        <v>0.3776112213595442</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6505841470255697</v>
+        <v>0.6435230571562514</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -5250,19 +5250,19 @@
         <v>41246</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33154</v>
+        <v>32440</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49308</v>
+        <v>48245</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5605446121245249</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4505699802466722</v>
+        <v>0.4408748442533778</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6701124436268983</v>
+        <v>0.6556696923973322</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>13738</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6974</v>
+        <v>7430</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21277</v>
+        <v>23652</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2652554298381277</v>
+        <v>0.2652554298381278</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.134663258499861</v>
+        <v>0.1434647520250918</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4108177660402974</v>
+        <v>0.4566874874002074</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -5375,19 +5375,19 @@
         <v>19810</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14261</v>
+        <v>13859</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25818</v>
+        <v>25710</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4602154326778422</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3313065014480475</v>
+        <v>0.3219809574909327</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5998134819346358</v>
+        <v>0.5972925260725827</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -5396,19 +5396,19 @@
         <v>33547</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24619</v>
+        <v>24424</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43725</v>
+        <v>44283</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3537445503440587</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2595950549274021</v>
+        <v>0.257538019964008</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4610669091977364</v>
+        <v>0.4669502036630964</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>38053</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30514</v>
+        <v>28139</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44817</v>
+        <v>44361</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7347445701618723</v>
+        <v>0.7347445701618724</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5891822339597022</v>
+        <v>0.5433125125997926</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8653367415001386</v>
+        <v>0.8565352479749081</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -5446,19 +5446,19 @@
         <v>23234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17226</v>
+        <v>17334</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28783</v>
+        <v>29185</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.539784567322158</v>
+        <v>0.5397845673221578</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4001865180653641</v>
+        <v>0.4027074739274173</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6686934985519527</v>
+        <v>0.6780190425090676</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>54</v>
@@ -5467,19 +5467,19 @@
         <v>61288</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51110</v>
+        <v>50552</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>70216</v>
+        <v>70411</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6462554496559411</v>
+        <v>0.6462554496559412</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5389330908022639</v>
+        <v>0.5330497963369032</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.740404945072598</v>
+        <v>0.742461980035992</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>7151</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3209</v>
+        <v>2988</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11887</v>
+        <v>12398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2482446525043278</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1113955610977491</v>
+        <v>0.1037388853507667</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4126623383800876</v>
+        <v>0.4304063263172463</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -5592,19 +5592,19 @@
         <v>11938</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7225</v>
+        <v>7960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16023</v>
+        <v>16238</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4375918034057502</v>
+        <v>0.4375918034057501</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2648262616811337</v>
+        <v>0.2917859960970289</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5873382161251295</v>
+        <v>0.5951960344855426</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -5613,19 +5613,19 @@
         <v>19089</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13208</v>
+        <v>13265</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27117</v>
+        <v>25418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3403459331528805</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2355008334415438</v>
+        <v>0.236505125851928</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.483490421108141</v>
+        <v>0.4531995835245194</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>21654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16918</v>
+        <v>16407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25596</v>
+        <v>25817</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7517553474956722</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5873376616199124</v>
+        <v>0.5695936736827537</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8886044389022509</v>
+        <v>0.8962611146492331</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -5663,19 +5663,19 @@
         <v>15343</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11258</v>
+        <v>11043</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20056</v>
+        <v>19321</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5624081965942499</v>
+        <v>0.5624081965942498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4126617838748701</v>
+        <v>0.4048039655144575</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7351737383188662</v>
+        <v>0.7082140039029711</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -5684,19 +5684,19 @@
         <v>36997</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28969</v>
+        <v>30668</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42878</v>
+        <v>42821</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6596540668471196</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.516509578891859</v>
+        <v>0.5468004164754805</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7644991665584568</v>
+        <v>0.7634948741480719</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>25001</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13863</v>
+        <v>14016</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38508</v>
+        <v>38300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.366501037412698</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2032187306372041</v>
+        <v>0.2054684368213292</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.56450813315819</v>
+        <v>0.5614636789745181</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -5809,19 +5809,19 @@
         <v>17983</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10878</v>
+        <v>11050</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25263</v>
+        <v>26004</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4025417577370148</v>
+        <v>0.4025417577370147</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2434931811066327</v>
+        <v>0.2473450746585728</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5654892198495378</v>
+        <v>0.5820876831942743</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -5830,19 +5830,19 @@
         <v>42984</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29592</v>
+        <v>30498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58296</v>
+        <v>57529</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3807636873361973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2621353296446748</v>
+        <v>0.2701597029391123</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5164000730687278</v>
+        <v>0.5096091419359841</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>43214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29707</v>
+        <v>29915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54352</v>
+        <v>54199</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.633498962587302</v>
+        <v>0.6334989625873019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4354918668418098</v>
+        <v>0.4385363210254821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7967812693627958</v>
+        <v>0.794531563178671</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -5880,19 +5880,19 @@
         <v>26691</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19411</v>
+        <v>18670</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33796</v>
+        <v>33624</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5974582422629853</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4345107801504625</v>
+        <v>0.4179123168057255</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7565068188933671</v>
+        <v>0.7526549253414269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>56</v>
@@ -5901,19 +5901,19 @@
         <v>69905</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>54593</v>
+        <v>55360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>83297</v>
+        <v>82391</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6192363126638026</v>
+        <v>0.6192363126638027</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4835999269312721</v>
+        <v>0.4903908580640159</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7378646703553253</v>
+        <v>0.7298402970608875</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>8433</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4226</v>
+        <v>4714</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12358</v>
+        <v>12643</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3803555079337999</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.190621385522841</v>
+        <v>0.2126248574585163</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.55738681987813</v>
+        <v>0.5702409270770643</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -6026,19 +6026,19 @@
         <v>3324</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1209</v>
+        <v>1178</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7027</v>
+        <v>7169</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1428731570575408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05196257625189932</v>
+        <v>0.05062745090977773</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3020247316303524</v>
+        <v>0.3081354003128864</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -6047,19 +6047,19 @@
         <v>11757</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7389</v>
+        <v>7048</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17799</v>
+        <v>17720</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2587579461608561</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.162616398200062</v>
+        <v>0.1551225044723699</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3917191682461829</v>
+        <v>0.3899810551916221</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>13739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9814</v>
+        <v>9529</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17946</v>
+        <v>17458</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6196444920662001</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4426131801218701</v>
+        <v>0.4297590729229355</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8093786144771589</v>
+        <v>0.7873751425414836</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -6097,19 +6097,19 @@
         <v>19941</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16238</v>
+        <v>16096</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22056</v>
+        <v>22087</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.857126842942459</v>
+        <v>0.8571268429424593</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6979752683696474</v>
+        <v>0.6918645996871133</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9480374237481007</v>
+        <v>0.9493725490902223</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -6118,19 +6118,19 @@
         <v>33680</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27638</v>
+        <v>27717</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38048</v>
+        <v>38389</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7412420538391439</v>
+        <v>0.7412420538391438</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6082808317538172</v>
+        <v>0.6100189448083796</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8373836017999382</v>
+        <v>0.8448774955276301</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>15826</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10493</v>
+        <v>10855</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21534</v>
+        <v>21407</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4729711670649112</v>
+        <v>0.4729711670649111</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3136079729337597</v>
+        <v>0.3244262343159873</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6435618812414389</v>
+        <v>0.6397739369024801</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -6243,19 +6243,19 @@
         <v>11163</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7132</v>
+        <v>7581</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14793</v>
+        <v>14729</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5634739785915523</v>
+        <v>0.5634739785915522</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3599979857943247</v>
+        <v>0.3826526865896945</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7466860866951067</v>
+        <v>0.743481865190222</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -6264,19 +6264,19 @@
         <v>26989</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20449</v>
+        <v>20266</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33359</v>
+        <v>34403</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5066283555868237</v>
+        <v>0.5066283555868236</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3838676103088081</v>
+        <v>0.3804379850334397</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6262166344869498</v>
+        <v>0.6458088449576718</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>17634</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11926</v>
+        <v>12053</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22967</v>
+        <v>22605</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.527028832935089</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3564381187585611</v>
+        <v>0.3602260630975199</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6863920270662404</v>
+        <v>0.6755737656840128</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -6314,19 +6314,19 @@
         <v>8648</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5018</v>
+        <v>5082</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12679</v>
+        <v>12230</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4365260214084477</v>
+        <v>0.4365260214084476</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2533139133048933</v>
+        <v>0.2565181348097778</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6400020142056752</v>
+        <v>0.6173473134103051</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -6335,19 +6335,19 @@
         <v>26282</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19912</v>
+        <v>18868</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32822</v>
+        <v>33005</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4933716444131763</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3737833655130502</v>
+        <v>0.3541911550423282</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6161323896911919</v>
+        <v>0.6195620149665602</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>32459</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23337</v>
+        <v>21226</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43359</v>
+        <v>42828</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.359735980722141</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2586379510690553</v>
+        <v>0.2352413609954948</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4805378829579434</v>
+        <v>0.4746548316667236</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>54</v>
@@ -6460,19 +6460,19 @@
         <v>43437</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35055</v>
+        <v>34709</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>52064</v>
+        <v>52196</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4659849581313377</v>
+        <v>0.4659849581313378</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3760651168095783</v>
+        <v>0.3723491226046035</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5585278690470068</v>
+        <v>0.5599503094624888</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>78</v>
@@ -6481,19 +6481,19 @@
         <v>75896</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>62175</v>
+        <v>62610</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>89719</v>
+        <v>90319</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4137252896392177</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3389314975431998</v>
+        <v>0.3413017909676138</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4890793037786075</v>
+        <v>0.4923493639849704</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>57771</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46871</v>
+        <v>47402</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>66893</v>
+        <v>69004</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.640264019277859</v>
+        <v>0.6402640192778589</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5194621170420567</v>
+        <v>0.5253451683332763</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7413620489309449</v>
+        <v>0.7647586390045054</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>61</v>
@@ -6531,19 +6531,19 @@
         <v>49779</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>41152</v>
+        <v>41020</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>58161</v>
+        <v>58507</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5340150418686622</v>
+        <v>0.5340150418686624</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.441472130952993</v>
+        <v>0.440049690537511</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6239348831904215</v>
+        <v>0.6276508773953965</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>109</v>
@@ -6552,19 +6552,19 @@
         <v>107549</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>93726</v>
+        <v>93126</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>121270</v>
+        <v>120835</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5862747103607822</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5109206962213927</v>
+        <v>0.5076506360150296</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6610685024568003</v>
+        <v>0.6586982090323861</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>68597</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55783</v>
+        <v>56129</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81364</v>
+        <v>81639</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5010902946351581</v>
+        <v>0.501090294635158</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4074909616394846</v>
+        <v>0.4100150128345578</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5943560372175575</v>
+        <v>0.5963594773491391</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -6677,19 +6677,19 @@
         <v>53465</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44277</v>
+        <v>43506</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62685</v>
+        <v>61473</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5348629598032698</v>
+        <v>0.5348629598032697</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4429435533943817</v>
+        <v>0.4352314916612943</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6270993429838063</v>
+        <v>0.6149719318727135</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>121</v>
@@ -6698,19 +6698,19 @@
         <v>122062</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>105414</v>
+        <v>106158</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>137657</v>
+        <v>137078</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5153434134082853</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4450569286813255</v>
+        <v>0.448198893378582</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5811876793088405</v>
+        <v>0.5787429866974172</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>68298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>55531</v>
+        <v>55256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>81112</v>
+        <v>80766</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4989097053648419</v>
+        <v>0.498909705364842</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4056439627824425</v>
+        <v>0.4036405226508609</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5925090383605154</v>
+        <v>0.5899849871654421</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>54</v>
@@ -6748,19 +6748,19 @@
         <v>46495</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37275</v>
+        <v>38487</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55683</v>
+        <v>56454</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4651370401967301</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3729006570161935</v>
+        <v>0.3850280681272865</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5570564466056184</v>
+        <v>0.5647685083387057</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>109</v>
@@ -6769,19 +6769,19 @@
         <v>114793</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>99198</v>
+        <v>99777</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>131441</v>
+        <v>130697</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4846565865917147</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4188123206911595</v>
+        <v>0.4212570133025829</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5549430713186745</v>
+        <v>0.5518011066214179</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>187669</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>161718</v>
+        <v>163951</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>212968</v>
+        <v>214334</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.3972603252073339</v>
+        <v>0.397260325207334</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3423269755702917</v>
+        <v>0.3470534451351499</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4508142320791408</v>
+        <v>0.4537052531069058</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>225</v>
@@ -6894,19 +6894,19 @@
         <v>176990</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>378</v>
@@ -6915,19 +6915,19 @@
         <v>364659</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>334475</v>
+        <v>335602</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>394892</v>
+        <v>396302</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4258049708390717</v>
+        <v>0.4258049708390718</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.390559618313245</v>
+        <v>0.3918756358498318</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.461107150886841</v>
+        <v>0.462753695361647</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>284739</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>259440</v>
+        <v>258074</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>310690</v>
+        <v>308457</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6027396747926661</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5491857679208594</v>
+        <v>0.5462947468930942</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6576730244297083</v>
+        <v>0.65294655486485</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>269</v>
@@ -6965,19 +6965,19 @@
         <v>207002</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>189109</v>
+        <v>188693</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>225615</v>
+        <v>224270</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5390778801245432</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4924812720583398</v>
+        <v>0.4913989850486561</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5875513546025867</v>
+        <v>0.5840482558289545</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>503</v>
@@ -6986,19 +6986,19 @@
         <v>491741</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>461508</v>
+        <v>460098</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>521925</v>
+        <v>520798</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5741950291609282</v>
+        <v>0.5741950291609283</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.538892849113159</v>
+        <v>0.5372463046383531</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6094403816867551</v>
+        <v>0.6081243641501684</v>
       </c>
     </row>
     <row r="30">
